--- a/graph_generation/results_prelim/hermes_llama2/level_8/k_1.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_8/k_1.xlsx
@@ -33,7 +33,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node P? Return the sequence of nodes in response.
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
@@ -53,24 +53,24 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node P? Return the sequence of nodes in response.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 5 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 3 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -80,10 +80,10 @@
     <t>The least cost path from node A to node P is not possible as there is no path between these two nodes.</t>
   </si>
   <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>1/1</t>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
